--- a/Assignment3(Python Project)/data/budgets.xlsx
+++ b/Assignment3(Python Project)/data/budgets.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -825,25 +825,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45748</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Utilities</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>100</v>
-      </c>
-      <c r="D21" t="n">
-        <v>20</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
